--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3772.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3772.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.40886110170875</v>
+        <v>0.5006976723670959</v>
       </c>
       <c r="B1">
-        <v>2.655400340029178</v>
+        <v>0.5752987265586853</v>
       </c>
       <c r="C1">
-        <v>3.263008826738878</v>
+        <v>4.676632881164551</v>
       </c>
       <c r="D1">
-        <v>3.830867009821842</v>
+        <v>1.882308483123779</v>
       </c>
       <c r="E1">
-        <v>1.852331965696406</v>
+        <v>0.896948516368866</v>
       </c>
     </row>
   </sheetData>
